--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -453,13 +453,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001913655743705664</v>
+        <v>0.9922803468680383</v>
       </c>
       <c r="E2">
-        <v>0.001913655743705664</v>
+        <v>0.9922803468680383</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.017738323721814E-55</v>
+        <v>1.376189089261484E-26</v>
       </c>
       <c r="E3">
-        <v>4.017738323721814E-55</v>
+        <v>1.376189089261484E-26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.040361331416299E-26</v>
+        <v>5.543616232827255E-19</v>
       </c>
       <c r="E4">
-        <v>2.040361331416299E-26</v>
+        <v>5.543616232827255E-19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.9999999999994191</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.9999999999994191</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -509,13 +509,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01506637978536992</v>
+        <v>0.9992481731165173</v>
       </c>
       <c r="E6">
-        <v>0.01506637978536992</v>
+        <v>0.9992481731165173</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.997923138372877E-24</v>
+        <v>8.055981314646563E-14</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.9999999999999194</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.999999999999998</v>
+        <v>0.9999999999932081</v>
       </c>
       <c r="E8">
-        <v>1.998401444325282E-15</v>
+        <v>6.791900375446858E-12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9951654102848972</v>
+        <v>0.9992138498385643</v>
       </c>
       <c r="E9">
-        <v>0.004834589715102755</v>
+        <v>0.0007861501614356836</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.250809351187997E-24</v>
+        <v>5.392651757992452E-24</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.126205747060333E-09</v>
+        <v>1.034458475777952E-16</v>
       </c>
       <c r="E11">
-        <v>0.9999999938737942</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F11">
-        <v>16.87804794311523</v>
+        <v>16.07662963867188</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
